--- a/Medidas - 8 bits - 500KB.xlsx
+++ b/Medidas - 8 bits - 500KB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Documents\IME\Computação\PFC\pfc-ml-crypto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71bff1afd2b44a02/Desktop/5 ano/PFC/pfc-ml-crypto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5411D7DE-C3F7-4694-8C93-8C11964AED5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{5411D7DE-C3F7-4694-8C93-8C11964AED5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BC2BC03B-A09A-47DA-8ECE-04BB365F766D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ED" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="ExternalData_2" localSheetId="1" hidden="1">DICE!$A$1:$AW$49</definedName>
     <definedName name="ExternalData_3" localSheetId="0" hidden="1">ED!$A$1:$AW$49</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,148 +51,148 @@
     <t>Column1</t>
   </si>
   <si>
-    <t>DES_doc_1.txt</t>
+    <t>DES_doc_1</t>
   </si>
   <si>
-    <t>DES_doc_10.txt</t>
+    <t>DES_doc_2</t>
   </si>
   <si>
-    <t>DES_doc_11.txt</t>
+    <t>DES_doc_3</t>
   </si>
   <si>
-    <t>DES_doc_12.txt</t>
+    <t>DES_doc_4</t>
   </si>
   <si>
-    <t>DES_doc_13.txt</t>
+    <t>DES_doc_5</t>
   </si>
   <si>
-    <t>DES_doc_14.txt</t>
+    <t>DES_doc_6</t>
   </si>
   <si>
-    <t>DES_doc_15.txt</t>
+    <t>DES_doc_7</t>
   </si>
   <si>
-    <t>DES_doc_16.txt</t>
+    <t>DES_doc_8</t>
   </si>
   <si>
-    <t>DES_doc_2.txt</t>
+    <t>DES_doc_9</t>
   </si>
   <si>
-    <t>DES_doc_3.txt</t>
+    <t>DES_doc_10</t>
   </si>
   <si>
-    <t>DES_doc_4.txt</t>
+    <t>DES_doc_11</t>
   </si>
   <si>
-    <t>DES_doc_5.txt</t>
+    <t>DES_doc_12</t>
   </si>
   <si>
-    <t>DES_doc_6.txt</t>
+    <t>DES_doc_13</t>
   </si>
   <si>
-    <t>DES_doc_7.txt</t>
+    <t>DES_doc_14</t>
   </si>
   <si>
-    <t>DES_doc_8.txt</t>
+    <t>DES_doc_15</t>
   </si>
   <si>
-    <t>DES_doc_9.txt</t>
+    <t>DES_doc_16</t>
   </si>
   <si>
-    <t>ElGamal_doc_1.txt</t>
+    <t>ElGamal_doc_1</t>
   </si>
   <si>
-    <t>ElGamal_doc_10.txt</t>
+    <t>ElGamal_doc_2</t>
   </si>
   <si>
-    <t>ElGamal_doc_11.txt</t>
+    <t>ElGamal_doc_3</t>
   </si>
   <si>
-    <t>ElGamal_doc_12.txt</t>
+    <t>ElGamal_doc_4</t>
   </si>
   <si>
-    <t>ElGamal_doc_13.txt</t>
+    <t>ElGamal_doc_5</t>
   </si>
   <si>
-    <t>ElGamal_doc_14.txt</t>
+    <t>ElGamal_doc_6</t>
   </si>
   <si>
-    <t>ElGamal_doc_15.txt</t>
+    <t>ElGamal_doc_7</t>
   </si>
   <si>
-    <t>ElGamal_doc_16.txt</t>
+    <t>ElGamal_doc_8</t>
   </si>
   <si>
-    <t>ElGamal_doc_2.txt</t>
+    <t>ElGamal_doc_9</t>
   </si>
   <si>
-    <t>ElGamal_doc_3.txt</t>
+    <t>ElGamal_doc_10</t>
   </si>
   <si>
-    <t>ElGamal_doc_4.txt</t>
+    <t>ElGamal_doc_11</t>
   </si>
   <si>
-    <t>ElGamal_doc_5.txt</t>
+    <t>ElGamal_doc_12</t>
   </si>
   <si>
-    <t>ElGamal_doc_6.txt</t>
+    <t>ElGamal_doc_13</t>
   </si>
   <si>
-    <t>ElGamal_doc_7.txt</t>
+    <t>ElGamal_doc_14</t>
   </si>
   <si>
-    <t>ElGamal_doc_8.txt</t>
+    <t>ElGamal_doc_15</t>
   </si>
   <si>
-    <t>ElGamal_doc_9.txt</t>
+    <t>ElGamal_doc_16</t>
   </si>
   <si>
-    <t>RSA_doc_1.txt</t>
+    <t>RSA_doc_1</t>
   </si>
   <si>
-    <t>RSA_doc_10.txt</t>
+    <t>RSA_doc_2</t>
   </si>
   <si>
-    <t>RSA_doc_11.txt</t>
+    <t>RSA_doc_3</t>
   </si>
   <si>
-    <t>RSA_doc_12.txt</t>
+    <t>RSA_doc_4</t>
   </si>
   <si>
-    <t>RSA_doc_13.txt</t>
+    <t>RSA_doc_5</t>
   </si>
   <si>
-    <t>RSA_doc_14.txt</t>
+    <t>RSA_doc_6</t>
   </si>
   <si>
-    <t>RSA_doc_15.txt</t>
+    <t>RSA_doc_7</t>
   </si>
   <si>
-    <t>RSA_doc_16.txt</t>
+    <t>RSA_doc_8</t>
   </si>
   <si>
-    <t>RSA_doc_2.txt</t>
+    <t>RSA_doc_9</t>
   </si>
   <si>
-    <t>RSA_doc_3.txt</t>
+    <t>RSA_doc_10</t>
   </si>
   <si>
-    <t>RSA_doc_4.txt</t>
+    <t>RSA_doc_11</t>
   </si>
   <si>
-    <t>RSA_doc_5.txt</t>
+    <t>RSA_doc_12</t>
   </si>
   <si>
-    <t>RSA_doc_6.txt</t>
+    <t>RSA_doc_13</t>
   </si>
   <si>
-    <t>RSA_doc_7.txt</t>
+    <t>RSA_doc_14</t>
   </si>
   <si>
-    <t>RSA_doc_8.txt</t>
+    <t>RSA_doc_15</t>
   </si>
   <si>
-    <t>RSA_doc_9.txt</t>
+    <t>RSA_doc_16</t>
   </si>
 </sst>
 </file>
@@ -436,55 +436,55 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{281760C7-BB8C-4F6A-AF5D-702F98E02594}" name="Distancia_Euclidiana_8" displayName="Distancia_Euclidiana_8" ref="A1:AW49" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:AW49" xr:uid="{23650E20-491D-49D6-A9B1-3C076809521A}"/>
   <tableColumns count="49">
-    <tableColumn id="1" xr3:uid="{809C8596-00FC-412C-95DD-BCA21DEBA31C}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{A54BD5C2-E3ED-457C-A6BA-D156A84DBC5D}" uniqueName="2" name="DES_doc_1.txt" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{EE58902C-F79F-4203-9948-11093A84441D}" uniqueName="3" name="DES_doc_10.txt" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{D6E5C529-AD25-4746-8AB5-EFF47393308B}" uniqueName="4" name="DES_doc_11.txt" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{4EAA19E2-AD3D-4B69-B596-2DC1CF7F1867}" uniqueName="5" name="DES_doc_12.txt" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{CCCE17CE-F09B-4A8A-98A3-18EB4B638C99}" uniqueName="6" name="DES_doc_13.txt" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{03A374FC-04F1-4429-8851-B3C4DC7BE892}" uniqueName="7" name="DES_doc_14.txt" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{7F8E437C-2776-4695-BE01-B18F1077ADA0}" uniqueName="8" name="DES_doc_15.txt" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{4DDD9129-22E4-4ABA-BA42-8A8E31746474}" uniqueName="9" name="DES_doc_16.txt" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{C0525AF2-5223-4D1A-A80A-05025A30DFE0}" uniqueName="10" name="DES_doc_2.txt" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{133F2F86-98A0-44CD-BFF6-673554DD463C}" uniqueName="11" name="DES_doc_3.txt" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{F1848012-AA86-48A6-A529-FE48EAA76DF3}" uniqueName="12" name="DES_doc_4.txt" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{3DDCF86D-BBBB-4EE3-BB19-D9FCA99E1E42}" uniqueName="13" name="DES_doc_5.txt" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{88E31FD7-E0E5-45B7-8DEF-02D328F0D846}" uniqueName="14" name="DES_doc_6.txt" queryTableFieldId="14"/>
-    <tableColumn id="15" xr3:uid="{368D6FFA-0305-4FC5-BFFF-69BC26347AFF}" uniqueName="15" name="DES_doc_7.txt" queryTableFieldId="15"/>
-    <tableColumn id="16" xr3:uid="{FD1A7525-4F54-48AF-8559-AC834502902E}" uniqueName="16" name="DES_doc_8.txt" queryTableFieldId="16"/>
-    <tableColumn id="17" xr3:uid="{687041F7-CCC2-4C05-A6B2-E214345BE280}" uniqueName="17" name="DES_doc_9.txt" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{44CB800B-2BFC-484D-948B-48FBADAEE067}" uniqueName="18" name="ElGamal_doc_1.txt" queryTableFieldId="18"/>
-    <tableColumn id="19" xr3:uid="{7E341BDF-BE05-4E68-B66F-377256316459}" uniqueName="19" name="ElGamal_doc_10.txt" queryTableFieldId="19"/>
-    <tableColumn id="20" xr3:uid="{6C47FFE4-9E32-41F6-86BD-1D6940A6D101}" uniqueName="20" name="ElGamal_doc_11.txt" queryTableFieldId="20"/>
-    <tableColumn id="21" xr3:uid="{D246F90E-B136-4149-BE81-5BC7E1B04BF8}" uniqueName="21" name="ElGamal_doc_12.txt" queryTableFieldId="21"/>
-    <tableColumn id="22" xr3:uid="{464E50F2-32FE-4A8B-B0C5-7CB403CF4669}" uniqueName="22" name="ElGamal_doc_13.txt" queryTableFieldId="22"/>
-    <tableColumn id="23" xr3:uid="{E879DFAB-51F5-46C8-8873-7750A64B430F}" uniqueName="23" name="ElGamal_doc_14.txt" queryTableFieldId="23"/>
-    <tableColumn id="24" xr3:uid="{E2EED0FB-A32B-43A6-B607-5BA580E81CA4}" uniqueName="24" name="ElGamal_doc_15.txt" queryTableFieldId="24"/>
-    <tableColumn id="25" xr3:uid="{F1E038D5-6F9B-4BF2-8A13-61C15C3CAF3B}" uniqueName="25" name="ElGamal_doc_16.txt" queryTableFieldId="25"/>
-    <tableColumn id="26" xr3:uid="{5F85B35A-CA7E-4044-BAEC-2A7FE61E720B}" uniqueName="26" name="ElGamal_doc_2.txt" queryTableFieldId="26"/>
-    <tableColumn id="27" xr3:uid="{664BD036-BCDC-4F52-B90C-DC79ED47A658}" uniqueName="27" name="ElGamal_doc_3.txt" queryTableFieldId="27"/>
-    <tableColumn id="28" xr3:uid="{4F3F071D-0248-451B-831F-CBD950E94152}" uniqueName="28" name="ElGamal_doc_4.txt" queryTableFieldId="28"/>
-    <tableColumn id="29" xr3:uid="{7DE031C2-5233-4A86-9179-627DE29C61C7}" uniqueName="29" name="ElGamal_doc_5.txt" queryTableFieldId="29"/>
-    <tableColumn id="30" xr3:uid="{7A31ABD2-D832-4333-A2A0-1BABFF982962}" uniqueName="30" name="ElGamal_doc_6.txt" queryTableFieldId="30"/>
-    <tableColumn id="31" xr3:uid="{083F79AC-2269-4E63-B02C-A597901EBA5A}" uniqueName="31" name="ElGamal_doc_7.txt" queryTableFieldId="31"/>
-    <tableColumn id="32" xr3:uid="{553F88E2-C202-4C4E-AF37-DA0BD9ECF91A}" uniqueName="32" name="ElGamal_doc_8.txt" queryTableFieldId="32"/>
-    <tableColumn id="33" xr3:uid="{A44CC475-05C9-4D16-82ED-FDFA9A70BBD0}" uniqueName="33" name="ElGamal_doc_9.txt" queryTableFieldId="33"/>
-    <tableColumn id="34" xr3:uid="{2AE17C63-727E-41BF-A089-CF029DEF2B90}" uniqueName="34" name="RSA_doc_1.txt" queryTableFieldId="34"/>
-    <tableColumn id="35" xr3:uid="{8E63FEA8-EDAC-403C-8D0E-202645F4E6A2}" uniqueName="35" name="RSA_doc_10.txt" queryTableFieldId="35"/>
-    <tableColumn id="36" xr3:uid="{23FDAEFF-CC90-4192-B571-42C93F60BB99}" uniqueName="36" name="RSA_doc_11.txt" queryTableFieldId="36"/>
-    <tableColumn id="37" xr3:uid="{315C4C70-67EC-4A89-A0C2-E5B4E3D0D91E}" uniqueName="37" name="RSA_doc_12.txt" queryTableFieldId="37"/>
-    <tableColumn id="38" xr3:uid="{CF38D5FF-B037-45B4-8448-C83593EED0DB}" uniqueName="38" name="RSA_doc_13.txt" queryTableFieldId="38"/>
-    <tableColumn id="39" xr3:uid="{8E7E0617-5791-44EE-8BA9-D94004CCA522}" uniqueName="39" name="RSA_doc_14.txt" queryTableFieldId="39"/>
-    <tableColumn id="40" xr3:uid="{E0A8B9EA-5821-438F-9E93-A326D3F6416D}" uniqueName="40" name="RSA_doc_15.txt" queryTableFieldId="40"/>
-    <tableColumn id="41" xr3:uid="{06F3322E-72D1-4FFD-8EA3-50997FF4ACD4}" uniqueName="41" name="RSA_doc_16.txt" queryTableFieldId="41"/>
-    <tableColumn id="42" xr3:uid="{D2F1B1D4-424E-4E1A-89C8-1794C978519E}" uniqueName="42" name="RSA_doc_2.txt" queryTableFieldId="42"/>
-    <tableColumn id="43" xr3:uid="{E12B73D8-979D-432A-8480-201C17831342}" uniqueName="43" name="RSA_doc_3.txt" queryTableFieldId="43"/>
-    <tableColumn id="44" xr3:uid="{26437CC0-5963-46DC-90C4-2EDABB327182}" uniqueName="44" name="RSA_doc_4.txt" queryTableFieldId="44"/>
-    <tableColumn id="45" xr3:uid="{1F167C14-1D7E-4BA3-B364-36612F24F132}" uniqueName="45" name="RSA_doc_5.txt" queryTableFieldId="45"/>
-    <tableColumn id="46" xr3:uid="{19FA31EC-9E6A-4158-8D5F-2DC9F75895D2}" uniqueName="46" name="RSA_doc_6.txt" queryTableFieldId="46"/>
-    <tableColumn id="47" xr3:uid="{A35A8EA7-365E-4CE0-A350-987A77007F54}" uniqueName="47" name="RSA_doc_7.txt" queryTableFieldId="47"/>
-    <tableColumn id="48" xr3:uid="{A1FD3740-9B42-4B76-A7C6-04428308863F}" uniqueName="48" name="RSA_doc_8.txt" queryTableFieldId="48"/>
-    <tableColumn id="49" xr3:uid="{9B0776A0-3110-4CAC-B9D4-51C06320A745}" uniqueName="49" name="RSA_doc_9.txt" queryTableFieldId="49"/>
+    <tableColumn id="1" xr3:uid="{809C8596-00FC-412C-95DD-BCA21DEBA31C}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{A54BD5C2-E3ED-457C-A6BA-D156A84DBC5D}" uniqueName="2" name="DES_doc_1" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{EE58902C-F79F-4203-9948-11093A84441D}" uniqueName="3" name="DES_doc_2" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{D6E5C529-AD25-4746-8AB5-EFF47393308B}" uniqueName="4" name="DES_doc_3" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{4EAA19E2-AD3D-4B69-B596-2DC1CF7F1867}" uniqueName="5" name="DES_doc_4" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{CCCE17CE-F09B-4A8A-98A3-18EB4B638C99}" uniqueName="6" name="DES_doc_5" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{03A374FC-04F1-4429-8851-B3C4DC7BE892}" uniqueName="7" name="DES_doc_6" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{7F8E437C-2776-4695-BE01-B18F1077ADA0}" uniqueName="8" name="DES_doc_7" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{4DDD9129-22E4-4ABA-BA42-8A8E31746474}" uniqueName="9" name="DES_doc_8" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{C0525AF2-5223-4D1A-A80A-05025A30DFE0}" uniqueName="10" name="DES_doc_9" queryTableFieldId="10"/>
+    <tableColumn id="11" xr3:uid="{133F2F86-98A0-44CD-BFF6-673554DD463C}" uniqueName="11" name="DES_doc_10" queryTableFieldId="11"/>
+    <tableColumn id="12" xr3:uid="{F1848012-AA86-48A6-A529-FE48EAA76DF3}" uniqueName="12" name="DES_doc_11" queryTableFieldId="12"/>
+    <tableColumn id="13" xr3:uid="{3DDCF86D-BBBB-4EE3-BB19-D9FCA99E1E42}" uniqueName="13" name="DES_doc_12" queryTableFieldId="13"/>
+    <tableColumn id="14" xr3:uid="{88E31FD7-E0E5-45B7-8DEF-02D328F0D846}" uniqueName="14" name="DES_doc_13" queryTableFieldId="14"/>
+    <tableColumn id="15" xr3:uid="{368D6FFA-0305-4FC5-BFFF-69BC26347AFF}" uniqueName="15" name="DES_doc_14" queryTableFieldId="15"/>
+    <tableColumn id="16" xr3:uid="{FD1A7525-4F54-48AF-8559-AC834502902E}" uniqueName="16" name="DES_doc_15" queryTableFieldId="16"/>
+    <tableColumn id="17" xr3:uid="{687041F7-CCC2-4C05-A6B2-E214345BE280}" uniqueName="17" name="DES_doc_16" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{44CB800B-2BFC-484D-948B-48FBADAEE067}" uniqueName="18" name="ElGamal_doc_1" queryTableFieldId="18"/>
+    <tableColumn id="19" xr3:uid="{7E341BDF-BE05-4E68-B66F-377256316459}" uniqueName="19" name="ElGamal_doc_2" queryTableFieldId="19"/>
+    <tableColumn id="20" xr3:uid="{6C47FFE4-9E32-41F6-86BD-1D6940A6D101}" uniqueName="20" name="ElGamal_doc_3" queryTableFieldId="20"/>
+    <tableColumn id="21" xr3:uid="{D246F90E-B136-4149-BE81-5BC7E1B04BF8}" uniqueName="21" name="ElGamal_doc_4" queryTableFieldId="21"/>
+    <tableColumn id="22" xr3:uid="{464E50F2-32FE-4A8B-B0C5-7CB403CF4669}" uniqueName="22" name="ElGamal_doc_5" queryTableFieldId="22"/>
+    <tableColumn id="23" xr3:uid="{E879DFAB-51F5-46C8-8873-7750A64B430F}" uniqueName="23" name="ElGamal_doc_6" queryTableFieldId="23"/>
+    <tableColumn id="24" xr3:uid="{E2EED0FB-A32B-43A6-B607-5BA580E81CA4}" uniqueName="24" name="ElGamal_doc_7" queryTableFieldId="24"/>
+    <tableColumn id="25" xr3:uid="{F1E038D5-6F9B-4BF2-8A13-61C15C3CAF3B}" uniqueName="25" name="ElGamal_doc_8" queryTableFieldId="25"/>
+    <tableColumn id="26" xr3:uid="{5F85B35A-CA7E-4044-BAEC-2A7FE61E720B}" uniqueName="26" name="ElGamal_doc_9" queryTableFieldId="26"/>
+    <tableColumn id="27" xr3:uid="{664BD036-BCDC-4F52-B90C-DC79ED47A658}" uniqueName="27" name="ElGamal_doc_10" queryTableFieldId="27"/>
+    <tableColumn id="28" xr3:uid="{4F3F071D-0248-451B-831F-CBD950E94152}" uniqueName="28" name="ElGamal_doc_11" queryTableFieldId="28"/>
+    <tableColumn id="29" xr3:uid="{7DE031C2-5233-4A86-9179-627DE29C61C7}" uniqueName="29" name="ElGamal_doc_12" queryTableFieldId="29"/>
+    <tableColumn id="30" xr3:uid="{7A31ABD2-D832-4333-A2A0-1BABFF982962}" uniqueName="30" name="ElGamal_doc_13" queryTableFieldId="30"/>
+    <tableColumn id="31" xr3:uid="{083F79AC-2269-4E63-B02C-A597901EBA5A}" uniqueName="31" name="ElGamal_doc_14" queryTableFieldId="31"/>
+    <tableColumn id="32" xr3:uid="{553F88E2-C202-4C4E-AF37-DA0BD9ECF91A}" uniqueName="32" name="ElGamal_doc_15" queryTableFieldId="32"/>
+    <tableColumn id="33" xr3:uid="{A44CC475-05C9-4D16-82ED-FDFA9A70BBD0}" uniqueName="33" name="ElGamal_doc_16" queryTableFieldId="33"/>
+    <tableColumn id="34" xr3:uid="{2AE17C63-727E-41BF-A089-CF029DEF2B90}" uniqueName="34" name="RSA_doc_1" queryTableFieldId="34"/>
+    <tableColumn id="35" xr3:uid="{8E63FEA8-EDAC-403C-8D0E-202645F4E6A2}" uniqueName="35" name="RSA_doc_2" queryTableFieldId="35"/>
+    <tableColumn id="36" xr3:uid="{23FDAEFF-CC90-4192-B571-42C93F60BB99}" uniqueName="36" name="RSA_doc_3" queryTableFieldId="36"/>
+    <tableColumn id="37" xr3:uid="{315C4C70-67EC-4A89-A0C2-E5B4E3D0D91E}" uniqueName="37" name="RSA_doc_4" queryTableFieldId="37"/>
+    <tableColumn id="38" xr3:uid="{CF38D5FF-B037-45B4-8448-C83593EED0DB}" uniqueName="38" name="RSA_doc_5" queryTableFieldId="38"/>
+    <tableColumn id="39" xr3:uid="{8E7E0617-5791-44EE-8BA9-D94004CCA522}" uniqueName="39" name="RSA_doc_6" queryTableFieldId="39"/>
+    <tableColumn id="40" xr3:uid="{E0A8B9EA-5821-438F-9E93-A326D3F6416D}" uniqueName="40" name="RSA_doc_7" queryTableFieldId="40"/>
+    <tableColumn id="41" xr3:uid="{06F3322E-72D1-4FFD-8EA3-50997FF4ACD4}" uniqueName="41" name="RSA_doc_8" queryTableFieldId="41"/>
+    <tableColumn id="42" xr3:uid="{D2F1B1D4-424E-4E1A-89C8-1794C978519E}" uniqueName="42" name="RSA_doc_9" queryTableFieldId="42"/>
+    <tableColumn id="43" xr3:uid="{E12B73D8-979D-432A-8480-201C17831342}" uniqueName="43" name="RSA_doc_10" queryTableFieldId="43"/>
+    <tableColumn id="44" xr3:uid="{26437CC0-5963-46DC-90C4-2EDABB327182}" uniqueName="44" name="RSA_doc_11" queryTableFieldId="44"/>
+    <tableColumn id="45" xr3:uid="{1F167C14-1D7E-4BA3-B364-36612F24F132}" uniqueName="45" name="RSA_doc_12" queryTableFieldId="45"/>
+    <tableColumn id="46" xr3:uid="{19FA31EC-9E6A-4158-8D5F-2DC9F75895D2}" uniqueName="46" name="RSA_doc_13" queryTableFieldId="46"/>
+    <tableColumn id="47" xr3:uid="{A35A8EA7-365E-4CE0-A350-987A77007F54}" uniqueName="47" name="RSA_doc_14" queryTableFieldId="47"/>
+    <tableColumn id="48" xr3:uid="{A1FD3740-9B42-4B76-A7C6-04428308863F}" uniqueName="48" name="RSA_doc_15" queryTableFieldId="48"/>
+    <tableColumn id="49" xr3:uid="{9B0776A0-3110-4CAC-B9D4-51C06320A745}" uniqueName="49" name="RSA_doc_16" queryTableFieldId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -495,54 +495,54 @@
   <autoFilter ref="A1:AW49" xr:uid="{E771D060-42E4-4E0B-B60D-CD472D36A1EA}"/>
   <tableColumns count="49">
     <tableColumn id="1" xr3:uid="{1BD7B802-CF50-4536-8EA9-4567CFCAD7BD}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{FF2148A0-2BFD-4FEA-A0C4-A66733D65AF3}" uniqueName="2" name="DES_doc_1.txt" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{38329327-EAB2-4B1D-82CF-E621E951E20F}" uniqueName="3" name="DES_doc_10.txt" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{CF01CAB8-9603-44BA-AEDB-9D17D38C77F5}" uniqueName="4" name="DES_doc_11.txt" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{EA4E8C38-777B-4640-9D53-4F0ED1849DE6}" uniqueName="5" name="DES_doc_12.txt" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{2865B62F-28D4-422C-AAEB-8201DC97CDC3}" uniqueName="6" name="DES_doc_13.txt" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{D7697489-C63E-4F8A-B3D9-4D6156A20454}" uniqueName="7" name="DES_doc_14.txt" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{B2EE084F-2A5F-4895-8F6C-8B5B1B6CDDCE}" uniqueName="8" name="DES_doc_15.txt" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{E60AF5DB-D697-48C0-88B5-C2A7D6D0CD7F}" uniqueName="9" name="DES_doc_16.txt" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{F38306D8-1067-4C1D-BCF3-C32FA0AA64F9}" uniqueName="10" name="DES_doc_2.txt" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{1EF57F3A-AF42-4F0E-9EB5-8C86F64718C5}" uniqueName="11" name="DES_doc_3.txt" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{35AC3F43-9146-4DFB-A633-2FEEC079C860}" uniqueName="12" name="DES_doc_4.txt" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{86488783-3C76-4E2F-AE24-282CE8A9AD27}" uniqueName="13" name="DES_doc_5.txt" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{E2D05889-31BD-4D3F-B0F2-F4D0695BE0C2}" uniqueName="14" name="DES_doc_6.txt" queryTableFieldId="14"/>
-    <tableColumn id="15" xr3:uid="{B8BC03A6-45B6-4B5A-85AB-662BF114B00F}" uniqueName="15" name="DES_doc_7.txt" queryTableFieldId="15"/>
-    <tableColumn id="16" xr3:uid="{98161703-92F5-456E-964F-F93D0323EFA1}" uniqueName="16" name="DES_doc_8.txt" queryTableFieldId="16"/>
-    <tableColumn id="17" xr3:uid="{7AD029FC-718E-40D4-9092-08A820A14B83}" uniqueName="17" name="DES_doc_9.txt" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{7A7F1B9D-C7E7-4FC4-B7D4-D9B0C0E0476B}" uniqueName="18" name="ElGamal_doc_1.txt" queryTableFieldId="18"/>
-    <tableColumn id="19" xr3:uid="{B7AD924F-B0A1-4530-9E90-32FC12E34313}" uniqueName="19" name="ElGamal_doc_10.txt" queryTableFieldId="19"/>
-    <tableColumn id="20" xr3:uid="{FBD67662-826F-4505-9DDD-BDDA717188A4}" uniqueName="20" name="ElGamal_doc_11.txt" queryTableFieldId="20"/>
-    <tableColumn id="21" xr3:uid="{DA34669D-20B5-4046-8F86-A3DDB2E23FC6}" uniqueName="21" name="ElGamal_doc_12.txt" queryTableFieldId="21"/>
-    <tableColumn id="22" xr3:uid="{CDD044BA-F6E6-44AB-84B8-1641A523AF86}" uniqueName="22" name="ElGamal_doc_13.txt" queryTableFieldId="22"/>
-    <tableColumn id="23" xr3:uid="{53F37F0C-209A-427F-BEFA-8BCE70CE2672}" uniqueName="23" name="ElGamal_doc_14.txt" queryTableFieldId="23"/>
-    <tableColumn id="24" xr3:uid="{5AAF397D-23B9-4665-88DA-FCF84BDF8032}" uniqueName="24" name="ElGamal_doc_15.txt" queryTableFieldId="24"/>
-    <tableColumn id="25" xr3:uid="{2C83C08F-68DE-44A1-9931-DA359F5A90FD}" uniqueName="25" name="ElGamal_doc_16.txt" queryTableFieldId="25"/>
-    <tableColumn id="26" xr3:uid="{AE1FF31C-8E51-400B-86D5-CE66EB5842FE}" uniqueName="26" name="ElGamal_doc_2.txt" queryTableFieldId="26"/>
-    <tableColumn id="27" xr3:uid="{CC7B4DFD-81F3-47F4-8395-EF16CF5F6C1C}" uniqueName="27" name="ElGamal_doc_3.txt" queryTableFieldId="27"/>
-    <tableColumn id="28" xr3:uid="{EE9F7719-03E5-45C1-94FE-7ECA42A7BA36}" uniqueName="28" name="ElGamal_doc_4.txt" queryTableFieldId="28"/>
-    <tableColumn id="29" xr3:uid="{F4E7222B-FA21-45C6-9682-E98E78900943}" uniqueName="29" name="ElGamal_doc_5.txt" queryTableFieldId="29"/>
-    <tableColumn id="30" xr3:uid="{8C6508BA-3560-43EC-A1B1-63394DAF75C1}" uniqueName="30" name="ElGamal_doc_6.txt" queryTableFieldId="30"/>
-    <tableColumn id="31" xr3:uid="{98109535-213A-4275-8974-921FD001759D}" uniqueName="31" name="ElGamal_doc_7.txt" queryTableFieldId="31"/>
-    <tableColumn id="32" xr3:uid="{6002F002-4DB7-4C9A-962A-132B7D52329F}" uniqueName="32" name="ElGamal_doc_8.txt" queryTableFieldId="32"/>
-    <tableColumn id="33" xr3:uid="{E5CD38A8-4043-45FE-B809-05BF5D0AB942}" uniqueName="33" name="ElGamal_doc_9.txt" queryTableFieldId="33"/>
-    <tableColumn id="34" xr3:uid="{4A58AF8D-B65D-40CC-8580-023B3656F031}" uniqueName="34" name="RSA_doc_1.txt" queryTableFieldId="34"/>
-    <tableColumn id="35" xr3:uid="{AD3FCB27-5CE0-4608-8C16-4157A1179B8F}" uniqueName="35" name="RSA_doc_10.txt" queryTableFieldId="35"/>
-    <tableColumn id="36" xr3:uid="{A59F4B19-948F-4062-8AE5-AF5868CA74DD}" uniqueName="36" name="RSA_doc_11.txt" queryTableFieldId="36"/>
-    <tableColumn id="37" xr3:uid="{FA59A8E0-1ADB-4B82-BB24-A02936D6F6DB}" uniqueName="37" name="RSA_doc_12.txt" queryTableFieldId="37"/>
-    <tableColumn id="38" xr3:uid="{62D93D67-DB5E-4718-89BF-3C5063F909E2}" uniqueName="38" name="RSA_doc_13.txt" queryTableFieldId="38"/>
-    <tableColumn id="39" xr3:uid="{0EDF79B8-8837-4DC8-B575-E6A643C7E0D3}" uniqueName="39" name="RSA_doc_14.txt" queryTableFieldId="39"/>
-    <tableColumn id="40" xr3:uid="{D033314A-A63B-491A-9AB9-C49E95454CFD}" uniqueName="40" name="RSA_doc_15.txt" queryTableFieldId="40"/>
-    <tableColumn id="41" xr3:uid="{928631EE-8769-43D9-9DC2-233B34160185}" uniqueName="41" name="RSA_doc_16.txt" queryTableFieldId="41"/>
-    <tableColumn id="42" xr3:uid="{F8F64730-6CBE-47F9-BCF6-02DE0D75D87A}" uniqueName="42" name="RSA_doc_2.txt" queryTableFieldId="42"/>
-    <tableColumn id="43" xr3:uid="{C7F73760-55EC-4919-91AE-F25351CA92F6}" uniqueName="43" name="RSA_doc_3.txt" queryTableFieldId="43"/>
-    <tableColumn id="44" xr3:uid="{9B4BE63A-DAD9-4157-B3EF-FBFFC3D3741F}" uniqueName="44" name="RSA_doc_4.txt" queryTableFieldId="44"/>
-    <tableColumn id="45" xr3:uid="{5B2AF560-8145-4877-8A5D-3C340CF8F713}" uniqueName="45" name="RSA_doc_5.txt" queryTableFieldId="45"/>
-    <tableColumn id="46" xr3:uid="{5723CBEA-4668-4154-8618-EF2FC2C7B9C1}" uniqueName="46" name="RSA_doc_6.txt" queryTableFieldId="46"/>
-    <tableColumn id="47" xr3:uid="{BC3F8C00-E057-40DF-AD52-EEA9F48734FD}" uniqueName="47" name="RSA_doc_7.txt" queryTableFieldId="47"/>
-    <tableColumn id="48" xr3:uid="{33B3D871-3A83-4F69-844E-F8B43CEE8EA2}" uniqueName="48" name="RSA_doc_8.txt" queryTableFieldId="48"/>
-    <tableColumn id="49" xr3:uid="{DDBDFAB7-415F-453E-82C7-1E5D13EF9F62}" uniqueName="49" name="RSA_doc_9.txt" queryTableFieldId="49"/>
+    <tableColumn id="2" xr3:uid="{FF2148A0-2BFD-4FEA-A0C4-A66733D65AF3}" uniqueName="2" name="DES_doc_1" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{38329327-EAB2-4B1D-82CF-E621E951E20F}" uniqueName="3" name="DES_doc_2" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{CF01CAB8-9603-44BA-AEDB-9D17D38C77F5}" uniqueName="4" name="DES_doc_3" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{EA4E8C38-777B-4640-9D53-4F0ED1849DE6}" uniqueName="5" name="DES_doc_4" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{2865B62F-28D4-422C-AAEB-8201DC97CDC3}" uniqueName="6" name="DES_doc_5" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{D7697489-C63E-4F8A-B3D9-4D6156A20454}" uniqueName="7" name="DES_doc_6" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{B2EE084F-2A5F-4895-8F6C-8B5B1B6CDDCE}" uniqueName="8" name="DES_doc_7" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{E60AF5DB-D697-48C0-88B5-C2A7D6D0CD7F}" uniqueName="9" name="DES_doc_8" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{F38306D8-1067-4C1D-BCF3-C32FA0AA64F9}" uniqueName="10" name="DES_doc_9" queryTableFieldId="10"/>
+    <tableColumn id="11" xr3:uid="{1EF57F3A-AF42-4F0E-9EB5-8C86F64718C5}" uniqueName="11" name="DES_doc_10" queryTableFieldId="11"/>
+    <tableColumn id="12" xr3:uid="{35AC3F43-9146-4DFB-A633-2FEEC079C860}" uniqueName="12" name="DES_doc_11" queryTableFieldId="12"/>
+    <tableColumn id="13" xr3:uid="{86488783-3C76-4E2F-AE24-282CE8A9AD27}" uniqueName="13" name="DES_doc_12" queryTableFieldId="13"/>
+    <tableColumn id="14" xr3:uid="{E2D05889-31BD-4D3F-B0F2-F4D0695BE0C2}" uniqueName="14" name="DES_doc_13" queryTableFieldId="14"/>
+    <tableColumn id="15" xr3:uid="{B8BC03A6-45B6-4B5A-85AB-662BF114B00F}" uniqueName="15" name="DES_doc_14" queryTableFieldId="15"/>
+    <tableColumn id="16" xr3:uid="{98161703-92F5-456E-964F-F93D0323EFA1}" uniqueName="16" name="DES_doc_15" queryTableFieldId="16"/>
+    <tableColumn id="17" xr3:uid="{7AD029FC-718E-40D4-9092-08A820A14B83}" uniqueName="17" name="DES_doc_16" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{7A7F1B9D-C7E7-4FC4-B7D4-D9B0C0E0476B}" uniqueName="18" name="ElGamal_doc_1" queryTableFieldId="18"/>
+    <tableColumn id="19" xr3:uid="{B7AD924F-B0A1-4530-9E90-32FC12E34313}" uniqueName="19" name="ElGamal_doc_2" queryTableFieldId="19"/>
+    <tableColumn id="20" xr3:uid="{FBD67662-826F-4505-9DDD-BDDA717188A4}" uniqueName="20" name="ElGamal_doc_3" queryTableFieldId="20"/>
+    <tableColumn id="21" xr3:uid="{DA34669D-20B5-4046-8F86-A3DDB2E23FC6}" uniqueName="21" name="ElGamal_doc_4" queryTableFieldId="21"/>
+    <tableColumn id="22" xr3:uid="{CDD044BA-F6E6-44AB-84B8-1641A523AF86}" uniqueName="22" name="ElGamal_doc_5" queryTableFieldId="22"/>
+    <tableColumn id="23" xr3:uid="{53F37F0C-209A-427F-BEFA-8BCE70CE2672}" uniqueName="23" name="ElGamal_doc_6" queryTableFieldId="23"/>
+    <tableColumn id="24" xr3:uid="{5AAF397D-23B9-4665-88DA-FCF84BDF8032}" uniqueName="24" name="ElGamal_doc_7" queryTableFieldId="24"/>
+    <tableColumn id="25" xr3:uid="{2C83C08F-68DE-44A1-9931-DA359F5A90FD}" uniqueName="25" name="ElGamal_doc_8" queryTableFieldId="25"/>
+    <tableColumn id="26" xr3:uid="{AE1FF31C-8E51-400B-86D5-CE66EB5842FE}" uniqueName="26" name="ElGamal_doc_9" queryTableFieldId="26"/>
+    <tableColumn id="27" xr3:uid="{CC7B4DFD-81F3-47F4-8395-EF16CF5F6C1C}" uniqueName="27" name="ElGamal_doc_10" queryTableFieldId="27"/>
+    <tableColumn id="28" xr3:uid="{EE9F7719-03E5-45C1-94FE-7ECA42A7BA36}" uniqueName="28" name="ElGamal_doc_11" queryTableFieldId="28"/>
+    <tableColumn id="29" xr3:uid="{F4E7222B-FA21-45C6-9682-E98E78900943}" uniqueName="29" name="ElGamal_doc_12" queryTableFieldId="29"/>
+    <tableColumn id="30" xr3:uid="{8C6508BA-3560-43EC-A1B1-63394DAF75C1}" uniqueName="30" name="ElGamal_doc_13" queryTableFieldId="30"/>
+    <tableColumn id="31" xr3:uid="{98109535-213A-4275-8974-921FD001759D}" uniqueName="31" name="ElGamal_doc_14" queryTableFieldId="31"/>
+    <tableColumn id="32" xr3:uid="{6002F002-4DB7-4C9A-962A-132B7D52329F}" uniqueName="32" name="ElGamal_doc_15" queryTableFieldId="32"/>
+    <tableColumn id="33" xr3:uid="{E5CD38A8-4043-45FE-B809-05BF5D0AB942}" uniqueName="33" name="ElGamal_doc_16" queryTableFieldId="33"/>
+    <tableColumn id="34" xr3:uid="{4A58AF8D-B65D-40CC-8580-023B3656F031}" uniqueName="34" name="RSA_doc_1" queryTableFieldId="34"/>
+    <tableColumn id="35" xr3:uid="{AD3FCB27-5CE0-4608-8C16-4157A1179B8F}" uniqueName="35" name="RSA_doc_2" queryTableFieldId="35"/>
+    <tableColumn id="36" xr3:uid="{A59F4B19-948F-4062-8AE5-AF5868CA74DD}" uniqueName="36" name="RSA_doc_3" queryTableFieldId="36"/>
+    <tableColumn id="37" xr3:uid="{FA59A8E0-1ADB-4B82-BB24-A02936D6F6DB}" uniqueName="37" name="RSA_doc_4" queryTableFieldId="37"/>
+    <tableColumn id="38" xr3:uid="{62D93D67-DB5E-4718-89BF-3C5063F909E2}" uniqueName="38" name="RSA_doc_5" queryTableFieldId="38"/>
+    <tableColumn id="39" xr3:uid="{0EDF79B8-8837-4DC8-B575-E6A643C7E0D3}" uniqueName="39" name="RSA_doc_6" queryTableFieldId="39"/>
+    <tableColumn id="40" xr3:uid="{D033314A-A63B-491A-9AB9-C49E95454CFD}" uniqueName="40" name="RSA_doc_7" queryTableFieldId="40"/>
+    <tableColumn id="41" xr3:uid="{928631EE-8769-43D9-9DC2-233B34160185}" uniqueName="41" name="RSA_doc_8" queryTableFieldId="41"/>
+    <tableColumn id="42" xr3:uid="{F8F64730-6CBE-47F9-BCF6-02DE0D75D87A}" uniqueName="42" name="RSA_doc_9" queryTableFieldId="42"/>
+    <tableColumn id="43" xr3:uid="{C7F73760-55EC-4919-91AE-F25351CA92F6}" uniqueName="43" name="RSA_doc_10" queryTableFieldId="43"/>
+    <tableColumn id="44" xr3:uid="{9B4BE63A-DAD9-4157-B3EF-FBFFC3D3741F}" uniqueName="44" name="RSA_doc_11" queryTableFieldId="44"/>
+    <tableColumn id="45" xr3:uid="{5B2AF560-8145-4877-8A5D-3C340CF8F713}" uniqueName="45" name="RSA_doc_12" queryTableFieldId="45"/>
+    <tableColumn id="46" xr3:uid="{5723CBEA-4668-4154-8618-EF2FC2C7B9C1}" uniqueName="46" name="RSA_doc_13" queryTableFieldId="46"/>
+    <tableColumn id="47" xr3:uid="{BC3F8C00-E057-40DF-AD52-EEA9F48734FD}" uniqueName="47" name="RSA_doc_14" queryTableFieldId="47"/>
+    <tableColumn id="48" xr3:uid="{33B3D871-3A83-4F69-844E-F8B43CEE8EA2}" uniqueName="48" name="RSA_doc_15" queryTableFieldId="48"/>
+    <tableColumn id="49" xr3:uid="{DDBDFAB7-415F-453E-82C7-1E5D13EF9F62}" uniqueName="49" name="RSA_doc_16" queryTableFieldId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -552,55 +552,55 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{514CFB74-D41A-4632-8008-3AD3CA2D62F3}" name="Angulo_Cosseno_8" displayName="Angulo_Cosseno_8" ref="A1:AW49" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:AW49" xr:uid="{AA151580-0F7D-4F31-803E-224B4FBFDA66}"/>
   <tableColumns count="49">
-    <tableColumn id="1" xr3:uid="{55E3A8AC-57AC-4D04-A7C7-1A2B8647EE95}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{7B04B98D-3B50-491A-B077-67E5DB022782}" uniqueName="2" name="DES_doc_1.txt" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{A25645E1-2FA7-4574-B81C-D9F48CE28A0A}" uniqueName="3" name="DES_doc_10.txt" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{5E2B1C33-706D-49FF-A3A3-38719E217C7F}" uniqueName="4" name="DES_doc_11.txt" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{4A096CFE-D132-4068-90B9-5699B49F9978}" uniqueName="5" name="DES_doc_12.txt" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{1519D80D-15D8-4887-A61E-4E7152C98EC3}" uniqueName="6" name="DES_doc_13.txt" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{6F4D3F1E-934F-41F5-9AEC-E1FC1E9DE6BD}" uniqueName="7" name="DES_doc_14.txt" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{83D5F51D-8CF7-4AE2-A63B-F73B05D0DC29}" uniqueName="8" name="DES_doc_15.txt" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{18FB83C2-F303-40E2-B4A5-5C10A6D2423E}" uniqueName="9" name="DES_doc_16.txt" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{85774D65-A96F-485B-98F7-6FF29F5D3E63}" uniqueName="10" name="DES_doc_2.txt" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{60EF4B9F-BA3A-4549-BA23-D484C5788F9E}" uniqueName="11" name="DES_doc_3.txt" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{0BDFDB60-ABB7-4EE2-B84F-6C880641F3B7}" uniqueName="12" name="DES_doc_4.txt" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{E5ACA04C-E3F5-45AE-92A8-54218D8A5E32}" uniqueName="13" name="DES_doc_5.txt" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{DFD78562-82E3-4714-A3A5-83FF204B4B02}" uniqueName="14" name="DES_doc_6.txt" queryTableFieldId="14"/>
-    <tableColumn id="15" xr3:uid="{4B91DCF6-307D-457F-89FA-CE3CE8540774}" uniqueName="15" name="DES_doc_7.txt" queryTableFieldId="15"/>
-    <tableColumn id="16" xr3:uid="{E82EFDE9-B7B7-42D6-A2BA-2E9E329DC63C}" uniqueName="16" name="DES_doc_8.txt" queryTableFieldId="16"/>
-    <tableColumn id="17" xr3:uid="{81638C77-D7DD-4AEB-A038-1228B372EEA1}" uniqueName="17" name="DES_doc_9.txt" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{1953F0BE-F7B8-4E86-87C5-F6D277326FC5}" uniqueName="18" name="ElGamal_doc_1.txt" queryTableFieldId="18"/>
-    <tableColumn id="19" xr3:uid="{87517C28-7A96-49ED-A042-2BDF5A84C026}" uniqueName="19" name="ElGamal_doc_10.txt" queryTableFieldId="19"/>
-    <tableColumn id="20" xr3:uid="{3D1E4DD3-99FE-4C6C-B61F-06ABD02AA318}" uniqueName="20" name="ElGamal_doc_11.txt" queryTableFieldId="20"/>
-    <tableColumn id="21" xr3:uid="{85D5F457-8762-4DC6-B294-DE2EFFDF863A}" uniqueName="21" name="ElGamal_doc_12.txt" queryTableFieldId="21"/>
-    <tableColumn id="22" xr3:uid="{DFAF2161-4C1A-4573-BF15-D2E70EDF3935}" uniqueName="22" name="ElGamal_doc_13.txt" queryTableFieldId="22"/>
-    <tableColumn id="23" xr3:uid="{3295B380-B1A2-4939-AA77-1CA04447D73A}" uniqueName="23" name="ElGamal_doc_14.txt" queryTableFieldId="23"/>
-    <tableColumn id="24" xr3:uid="{6D619D03-7386-4A8F-B955-2370FCF65935}" uniqueName="24" name="ElGamal_doc_15.txt" queryTableFieldId="24"/>
-    <tableColumn id="25" xr3:uid="{FC88EC58-1DCB-4CA8-A396-842D0CB35B6A}" uniqueName="25" name="ElGamal_doc_16.txt" queryTableFieldId="25"/>
-    <tableColumn id="26" xr3:uid="{FDC74B4B-8F08-42BF-9CC0-59AB9D243C21}" uniqueName="26" name="ElGamal_doc_2.txt" queryTableFieldId="26"/>
-    <tableColumn id="27" xr3:uid="{971474E0-6FC3-45D9-9EA4-417E9DF5F1AB}" uniqueName="27" name="ElGamal_doc_3.txt" queryTableFieldId="27"/>
-    <tableColumn id="28" xr3:uid="{E9899475-A612-4F29-B4BF-BBE3A099D2F2}" uniqueName="28" name="ElGamal_doc_4.txt" queryTableFieldId="28"/>
-    <tableColumn id="29" xr3:uid="{84C5A02C-CBAC-438C-857A-B57723EC23A6}" uniqueName="29" name="ElGamal_doc_5.txt" queryTableFieldId="29"/>
-    <tableColumn id="30" xr3:uid="{1D780C21-DD3E-4C5E-B95F-50174C998EF6}" uniqueName="30" name="ElGamal_doc_6.txt" queryTableFieldId="30"/>
-    <tableColumn id="31" xr3:uid="{EEB20EEA-7D68-4783-ADBE-1CFC5B82DA80}" uniqueName="31" name="ElGamal_doc_7.txt" queryTableFieldId="31"/>
-    <tableColumn id="32" xr3:uid="{BA87EADF-9D32-4CC6-8A13-49B01B94293B}" uniqueName="32" name="ElGamal_doc_8.txt" queryTableFieldId="32"/>
-    <tableColumn id="33" xr3:uid="{5C91F29F-7BE5-4D38-879C-838888DDD82E}" uniqueName="33" name="ElGamal_doc_9.txt" queryTableFieldId="33"/>
-    <tableColumn id="34" xr3:uid="{CA434E8D-D851-4017-8462-5A686A13497D}" uniqueName="34" name="RSA_doc_1.txt" queryTableFieldId="34"/>
-    <tableColumn id="35" xr3:uid="{015E38E6-7D70-4576-B2A2-8CB33272450C}" uniqueName="35" name="RSA_doc_10.txt" queryTableFieldId="35"/>
-    <tableColumn id="36" xr3:uid="{50138D33-DB8B-4C66-A3B0-E9B02412BA17}" uniqueName="36" name="RSA_doc_11.txt" queryTableFieldId="36"/>
-    <tableColumn id="37" xr3:uid="{A2689C4D-D59F-4182-A9F0-0B12CAEB2A3B}" uniqueName="37" name="RSA_doc_12.txt" queryTableFieldId="37"/>
-    <tableColumn id="38" xr3:uid="{940AA8F8-E67D-48E8-8BB4-CA863A04CFE0}" uniqueName="38" name="RSA_doc_13.txt" queryTableFieldId="38"/>
-    <tableColumn id="39" xr3:uid="{E41B7AC9-C080-43C5-9C69-A4B4A183C0B2}" uniqueName="39" name="RSA_doc_14.txt" queryTableFieldId="39"/>
-    <tableColumn id="40" xr3:uid="{0DF0EEA3-2CF2-44DC-88E4-7EAD41B86F2B}" uniqueName="40" name="RSA_doc_15.txt" queryTableFieldId="40"/>
-    <tableColumn id="41" xr3:uid="{E779BB61-782E-48FD-9B9B-C4D6E3B2DFBD}" uniqueName="41" name="RSA_doc_16.txt" queryTableFieldId="41"/>
-    <tableColumn id="42" xr3:uid="{149089F3-242A-445E-B1B6-C9F833486071}" uniqueName="42" name="RSA_doc_2.txt" queryTableFieldId="42"/>
-    <tableColumn id="43" xr3:uid="{13BF6F53-B7CA-409B-80FD-A5B65A71662A}" uniqueName="43" name="RSA_doc_3.txt" queryTableFieldId="43"/>
-    <tableColumn id="44" xr3:uid="{C6914457-21B5-4A20-B95D-D163B76B347C}" uniqueName="44" name="RSA_doc_4.txt" queryTableFieldId="44"/>
-    <tableColumn id="45" xr3:uid="{31359092-6B83-4749-A1F0-B776F90F1765}" uniqueName="45" name="RSA_doc_5.txt" queryTableFieldId="45"/>
-    <tableColumn id="46" xr3:uid="{D4961F68-50D3-4DCB-8DCF-62F16024D685}" uniqueName="46" name="RSA_doc_6.txt" queryTableFieldId="46"/>
-    <tableColumn id="47" xr3:uid="{B468378F-0C79-43FB-8754-0FE074B70BD5}" uniqueName="47" name="RSA_doc_7.txt" queryTableFieldId="47"/>
-    <tableColumn id="48" xr3:uid="{C257CCE9-5473-4FD7-8FD8-ECF82A6675A3}" uniqueName="48" name="RSA_doc_8.txt" queryTableFieldId="48"/>
-    <tableColumn id="49" xr3:uid="{F8E259C6-C810-4146-A93C-B55C333E97D5}" uniqueName="49" name="RSA_doc_9.txt" queryTableFieldId="49"/>
+    <tableColumn id="1" xr3:uid="{55E3A8AC-57AC-4D04-A7C7-1A2B8647EE95}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{7B04B98D-3B50-491A-B077-67E5DB022782}" uniqueName="2" name="DES_doc_1" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{A25645E1-2FA7-4574-B81C-D9F48CE28A0A}" uniqueName="3" name="DES_doc_2" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{5E2B1C33-706D-49FF-A3A3-38719E217C7F}" uniqueName="4" name="DES_doc_3" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{4A096CFE-D132-4068-90B9-5699B49F9978}" uniqueName="5" name="DES_doc_4" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{1519D80D-15D8-4887-A61E-4E7152C98EC3}" uniqueName="6" name="DES_doc_5" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{6F4D3F1E-934F-41F5-9AEC-E1FC1E9DE6BD}" uniqueName="7" name="DES_doc_6" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{83D5F51D-8CF7-4AE2-A63B-F73B05D0DC29}" uniqueName="8" name="DES_doc_7" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{18FB83C2-F303-40E2-B4A5-5C10A6D2423E}" uniqueName="9" name="DES_doc_8" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{85774D65-A96F-485B-98F7-6FF29F5D3E63}" uniqueName="10" name="DES_doc_9" queryTableFieldId="10"/>
+    <tableColumn id="11" xr3:uid="{60EF4B9F-BA3A-4549-BA23-D484C5788F9E}" uniqueName="11" name="DES_doc_10" queryTableFieldId="11"/>
+    <tableColumn id="12" xr3:uid="{0BDFDB60-ABB7-4EE2-B84F-6C880641F3B7}" uniqueName="12" name="DES_doc_11" queryTableFieldId="12"/>
+    <tableColumn id="13" xr3:uid="{E5ACA04C-E3F5-45AE-92A8-54218D8A5E32}" uniqueName="13" name="DES_doc_12" queryTableFieldId="13"/>
+    <tableColumn id="14" xr3:uid="{DFD78562-82E3-4714-A3A5-83FF204B4B02}" uniqueName="14" name="DES_doc_13" queryTableFieldId="14"/>
+    <tableColumn id="15" xr3:uid="{4B91DCF6-307D-457F-89FA-CE3CE8540774}" uniqueName="15" name="DES_doc_14" queryTableFieldId="15"/>
+    <tableColumn id="16" xr3:uid="{E82EFDE9-B7B7-42D6-A2BA-2E9E329DC63C}" uniqueName="16" name="DES_doc_15" queryTableFieldId="16"/>
+    <tableColumn id="17" xr3:uid="{81638C77-D7DD-4AEB-A038-1228B372EEA1}" uniqueName="17" name="DES_doc_16" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{1953F0BE-F7B8-4E86-87C5-F6D277326FC5}" uniqueName="18" name="ElGamal_doc_1" queryTableFieldId="18"/>
+    <tableColumn id="19" xr3:uid="{87517C28-7A96-49ED-A042-2BDF5A84C026}" uniqueName="19" name="ElGamal_doc_2" queryTableFieldId="19"/>
+    <tableColumn id="20" xr3:uid="{3D1E4DD3-99FE-4C6C-B61F-06ABD02AA318}" uniqueName="20" name="ElGamal_doc_3" queryTableFieldId="20"/>
+    <tableColumn id="21" xr3:uid="{85D5F457-8762-4DC6-B294-DE2EFFDF863A}" uniqueName="21" name="ElGamal_doc_4" queryTableFieldId="21"/>
+    <tableColumn id="22" xr3:uid="{DFAF2161-4C1A-4573-BF15-D2E70EDF3935}" uniqueName="22" name="ElGamal_doc_5" queryTableFieldId="22"/>
+    <tableColumn id="23" xr3:uid="{3295B380-B1A2-4939-AA77-1CA04447D73A}" uniqueName="23" name="ElGamal_doc_6" queryTableFieldId="23"/>
+    <tableColumn id="24" xr3:uid="{6D619D03-7386-4A8F-B955-2370FCF65935}" uniqueName="24" name="ElGamal_doc_7" queryTableFieldId="24"/>
+    <tableColumn id="25" xr3:uid="{FC88EC58-1DCB-4CA8-A396-842D0CB35B6A}" uniqueName="25" name="ElGamal_doc_8" queryTableFieldId="25"/>
+    <tableColumn id="26" xr3:uid="{FDC74B4B-8F08-42BF-9CC0-59AB9D243C21}" uniqueName="26" name="ElGamal_doc_9" queryTableFieldId="26"/>
+    <tableColumn id="27" xr3:uid="{971474E0-6FC3-45D9-9EA4-417E9DF5F1AB}" uniqueName="27" name="ElGamal_doc_10" queryTableFieldId="27"/>
+    <tableColumn id="28" xr3:uid="{E9899475-A612-4F29-B4BF-BBE3A099D2F2}" uniqueName="28" name="ElGamal_doc_11" queryTableFieldId="28"/>
+    <tableColumn id="29" xr3:uid="{84C5A02C-CBAC-438C-857A-B57723EC23A6}" uniqueName="29" name="ElGamal_doc_12" queryTableFieldId="29"/>
+    <tableColumn id="30" xr3:uid="{1D780C21-DD3E-4C5E-B95F-50174C998EF6}" uniqueName="30" name="ElGamal_doc_13" queryTableFieldId="30"/>
+    <tableColumn id="31" xr3:uid="{EEB20EEA-7D68-4783-ADBE-1CFC5B82DA80}" uniqueName="31" name="ElGamal_doc_14" queryTableFieldId="31"/>
+    <tableColumn id="32" xr3:uid="{BA87EADF-9D32-4CC6-8A13-49B01B94293B}" uniqueName="32" name="ElGamal_doc_15" queryTableFieldId="32"/>
+    <tableColumn id="33" xr3:uid="{5C91F29F-7BE5-4D38-879C-838888DDD82E}" uniqueName="33" name="ElGamal_doc_16" queryTableFieldId="33"/>
+    <tableColumn id="34" xr3:uid="{CA434E8D-D851-4017-8462-5A686A13497D}" uniqueName="34" name="RSA_doc_1" queryTableFieldId="34"/>
+    <tableColumn id="35" xr3:uid="{015E38E6-7D70-4576-B2A2-8CB33272450C}" uniqueName="35" name="RSA_doc_2" queryTableFieldId="35"/>
+    <tableColumn id="36" xr3:uid="{50138D33-DB8B-4C66-A3B0-E9B02412BA17}" uniqueName="36" name="RSA_doc_3" queryTableFieldId="36"/>
+    <tableColumn id="37" xr3:uid="{A2689C4D-D59F-4182-A9F0-0B12CAEB2A3B}" uniqueName="37" name="RSA_doc_4" queryTableFieldId="37"/>
+    <tableColumn id="38" xr3:uid="{940AA8F8-E67D-48E8-8BB4-CA863A04CFE0}" uniqueName="38" name="RSA_doc_5" queryTableFieldId="38"/>
+    <tableColumn id="39" xr3:uid="{E41B7AC9-C080-43C5-9C69-A4B4A183C0B2}" uniqueName="39" name="RSA_doc_6" queryTableFieldId="39"/>
+    <tableColumn id="40" xr3:uid="{0DF0EEA3-2CF2-44DC-88E4-7EAD41B86F2B}" uniqueName="40" name="RSA_doc_7" queryTableFieldId="40"/>
+    <tableColumn id="41" xr3:uid="{E779BB61-782E-48FD-9B9B-C4D6E3B2DFBD}" uniqueName="41" name="RSA_doc_8" queryTableFieldId="41"/>
+    <tableColumn id="42" xr3:uid="{149089F3-242A-445E-B1B6-C9F833486071}" uniqueName="42" name="RSA_doc_9" queryTableFieldId="42"/>
+    <tableColumn id="43" xr3:uid="{13BF6F53-B7CA-409B-80FD-A5B65A71662A}" uniqueName="43" name="RSA_doc_10" queryTableFieldId="43"/>
+    <tableColumn id="44" xr3:uid="{C6914457-21B5-4A20-B95D-D163B76B347C}" uniqueName="44" name="RSA_doc_11" queryTableFieldId="44"/>
+    <tableColumn id="45" xr3:uid="{31359092-6B83-4749-A1F0-B776F90F1765}" uniqueName="45" name="RSA_doc_12" queryTableFieldId="45"/>
+    <tableColumn id="46" xr3:uid="{D4961F68-50D3-4DCB-8DCF-62F16024D685}" uniqueName="46" name="RSA_doc_13" queryTableFieldId="46"/>
+    <tableColumn id="47" xr3:uid="{B468378F-0C79-43FB-8754-0FE074B70BD5}" uniqueName="47" name="RSA_doc_14" queryTableFieldId="47"/>
+    <tableColumn id="48" xr3:uid="{C257CCE9-5473-4FD7-8FD8-ECF82A6675A3}" uniqueName="48" name="RSA_doc_15" queryTableFieldId="48"/>
+    <tableColumn id="49" xr3:uid="{F8E259C6-C810-4146-A93C-B55C333E97D5}" uniqueName="49" name="RSA_doc_16" queryTableFieldId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -873,21 +873,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="17" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="25" width="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="33" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="35" max="41" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="42" max="49" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="33" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="41" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="49" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>1678.0500588499999</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>1414.2962914499999</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>1716.06351864</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>1648.4902183500001</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>1642.8779626</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>1697.9440509000001</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>1524.11941789</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>1556.62519574</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>1289.8147153800001</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>1671.71109944</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>1749.5862368000001</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>1437.2181462799999</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>1740.9669726899999</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>1572.06297584</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>1631.99877451</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>1713.2653034499999</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>804.28974878500003</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>790.64783563900005</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>814.62138444799996</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>851.76287780099995</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>730.10547183300002</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>833.75895797299995</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>742.73413816799996</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>798.28315778299998</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>837.28967508300002</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>794.98050290599997</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>802.00249376199997</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>790.73130708199994</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>778.21590834400001</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>827.92390954699999</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>737.40762133299995</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>762.12728595700003</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>675.56642900600002</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>719.53457178899998</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>723.30629749800005</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>679.85586707799996</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>681.73895297199999</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>685.68068370100002</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>730.12875576800002</v>
       </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>719.42616021399999</v>
       </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>691.09912458300005</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>698.46546085</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>719.01460346800002</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>732.30048477399998</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>735.58412163399998</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>707.125165724</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>713.70722288599995</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -8200,23 +8200,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E58408-5A0B-408D-A26D-08E4B512ACBE}">
   <dimension ref="A1:AW49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AW1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="17" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="25" width="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="33" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="35" max="41" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="42" max="49" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="33" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="41" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="49" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8365,7 +8367,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8514,7 +8516,7 @@
         <v>0.99426643593200004</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -8663,7 +8665,7 @@
         <v>0.995920022159</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -8812,7 +8814,7 @@
         <v>0.99400566148699998</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -8961,7 +8963,7 @@
         <v>0.99446500491900003</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -9110,7 +9112,7 @@
         <v>0.99450265403600002</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -9259,7 +9261,7 @@
         <v>0.99413020075799996</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -9408,7 +9410,7 @@
         <v>0.99526490555500002</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -9557,7 +9559,7 @@
         <v>0.995062397366</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -9706,7 +9708,7 @@
         <v>0.99660435197399999</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -9855,7 +9857,7 @@
         <v>0.99430942997100003</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -10004,7 +10006,7 @@
         <v>0.99377045262899999</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -10153,7 +10155,7 @@
         <v>0.99578747494200004</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -10302,7 +10304,7 @@
         <v>0.99383159769999996</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -10451,7 +10453,7 @@
         <v>0.99496482127600006</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -10600,7 +10602,7 @@
         <v>0.99457580202499996</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -10749,7 +10751,7 @@
         <v>0.99402439343399995</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -10898,7 +10900,7 @@
         <v>0.99867701896899996</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -11047,7 +11049,7 @@
         <v>0.99872131085899996</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -11196,7 +11198,7 @@
         <v>0.99864284190599995</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -11345,7 +11347,7 @@
         <v>0.99851643725200001</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -11494,7 +11496,7 @@
         <v>0.99890963224600005</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -11643,7 +11645,7 @@
         <v>0.99857811778600003</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -11792,7 +11794,7 @@
         <v>0.99887155381199999</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -11941,7 +11943,7 @@
         <v>0.99869676755600001</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -12090,7 +12092,7 @@
         <v>0.99856639437700001</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -12239,7 +12241,7 @@
         <v>0.99870741708800004</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -12388,7 +12390,7 @@
         <v>0.99868443477400004</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -12537,7 +12539,7 @@
         <v>0.99872113967700005</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -12686,7 +12688,7 @@
         <v>0.99876130224299997</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -12835,7 +12837,7 @@
         <v>0.99859805788800005</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -12984,7 +12986,7 @@
         <v>0.99888773834300004</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -13133,7 +13135,7 @@
         <v>0.99881181417200005</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -13282,7 +13284,7 @@
         <v>0.99906632112600002</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -13431,7 +13433,7 @@
         <v>0.99894080515100003</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -13580,7 +13582,7 @@
         <v>0.99892971397100006</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -13729,7 +13731,7 @@
         <v>0.99905446592500002</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -13878,7 +13880,7 @@
         <v>0.99904911979699995</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -14027,7 +14029,7 @@
         <v>0.99903816730200001</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -14176,7 +14178,7 @@
         <v>0.99890945976500001</v>
       </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -14325,7 +14327,7 @@
         <v>0.99894108205800003</v>
       </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -14474,7 +14476,7 @@
         <v>0.99902277740599998</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -14623,7 +14625,7 @@
         <v>0.99900192606100002</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -14772,7 +14774,7 @@
         <v>0.99894232716800002</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -14921,7 +14923,7 @@
         <v>0.99890291418599997</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -15070,7 +15072,7 @@
         <v>0.99889314111299998</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -15219,7 +15221,7 @@
         <v>0.99897704291099998</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -15368,7 +15370,7 @@
         <v>0.99895797513499995</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -15531,21 +15533,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="17" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="25" width="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="33" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="35" max="41" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="42" max="49" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="33" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="41" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="49" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15694,7 +15696,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -15843,7 +15845,7 @@
         <v>0.99427739873599996</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -15992,7 +15994,7 @@
         <v>0.99592434894199999</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -16141,7 +16143,7 @@
         <v>0.99401817342599996</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -16290,7 +16292,7 @@
         <v>0.99447462605500003</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -16439,7 +16441,7 @@
         <v>0.99451229589800005</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -16588,7 +16590,7 @@
         <v>0.99414157617999999</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -16737,7 +16739,7 @@
         <v>0.99527137243099995</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -16886,7 +16888,7 @@
         <v>0.99507008982199996</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -17035,7 +17037,7 @@
         <v>0.99660694093400004</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -17184,7 +17186,7 @@
         <v>0.99432019643199998</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -17333,7 +17335,7 @@
         <v>0.99378399605199996</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -17482,7 +17484,7 @@
         <v>0.99579235618899997</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -17631,7 +17633,7 @@
         <v>0.99384507262999999</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -17780,7 +17782,7 @@
         <v>0.994973182028</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -17929,7 +17931,7 @@
         <v>0.99458591796600004</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -18078,7 +18080,7 @@
         <v>0.99403624926400003</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -18227,7 +18229,7 @@
         <v>0.99867706405000001</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -18376,7 +18378,7 @@
         <v>0.99872132047100004</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -18525,7 +18527,7 @@
         <v>0.99864289395000005</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -18674,7 +18676,7 @@
         <v>0.99851653332900003</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -18823,7 +18825,7 @@
         <v>0.99890964093000001</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -18972,7 +18974,7 @@
         <v>0.99857813326099998</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -19121,7 +19123,7 @@
         <v>0.99887155916899995</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -19270,7 +19272,7 @@
         <v>0.99869682799000004</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -19419,7 +19421,7 @@
         <v>0.99856648090800004</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -19568,7 +19570,7 @@
         <v>0.99870745124899996</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -19717,7 +19719,7 @@
         <v>0.99868446025299995</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -19866,7 +19868,7 @@
         <v>0.99872116297400004</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -20015,7 +20017,7 @@
         <v>0.99876132559200004</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -20164,7 +20166,7 @@
         <v>0.99859808981300002</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -20313,7 +20315,7 @@
         <v>0.99888775034900001</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -20462,7 +20464,7 @@
         <v>0.99881181650999995</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -20611,7 +20613,7 @@
         <v>0.99906632114100002</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -20760,7 +20762,7 @@
         <v>0.99894080563099996</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -20909,7 +20911,7 @@
         <v>0.99892971400700004</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -21058,7 +21060,7 @@
         <v>0.99905446656700003</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -21207,7 +21209,7 @@
         <v>0.99904912226499998</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -21356,7 +21358,7 @@
         <v>0.99903816733200002</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -21505,7 +21507,7 @@
         <v>0.99890946046600004</v>
       </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -21654,7 +21656,7 @@
         <v>0.99894108456899999</v>
       </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -21803,7 +21805,7 @@
         <v>0.999022785059</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -21952,7 +21954,7 @@
         <v>0.999001926564</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -22101,7 +22103,7 @@
         <v>0.99894232792100002</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -22250,7 +22252,7 @@
         <v>0.99890291420800004</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -22399,7 +22401,7 @@
         <v>0.99889314374000004</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -22548,7 +22550,7 @@
         <v>0.99897704299900003</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -22697,7 +22699,7 @@
         <v>0.99895797632100003</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
